--- a/OnBoard/output/trust/catch/Catch_Trust_71.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_71.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -437,19 +437,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Arnoglossus laterna</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="G2">
-        <v>0.423</v>
+        <v>0.019</v>
       </c>
       <c r="H2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.22</v>
+        <v>0.183</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -499,7 +499,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -519,19 +519,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Loligo vulgaris</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LOLIVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G4">
-        <v>0.08799999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -560,19 +560,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Merluccius merluccius</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="G5">
-        <v>0.056</v>
+        <v>0.055</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,19 +601,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mytilus galloprovincialis</t>
+          <t>Pagellus erythrinus</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MYTGALL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="G6">
-        <v>0.184</v>
+        <v>0.511</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -622,7 +622,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -642,19 +642,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pagellus erythrinus</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G7">
-        <v>0.271</v>
+        <v>0.312</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -663,7 +663,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -683,19 +683,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Raja asterias</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G8">
-        <v>1.593</v>
+        <v>0.584</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -704,7 +704,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -719,24 +719,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sepia officinalis</t>
+          <t>Chelidonichthys lucernus</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="G9">
-        <v>0.18</v>
+        <v>0.423</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -745,7 +745,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -760,24 +760,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Melicertus kerathurus</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="G10">
-        <v>0.583</v>
+        <v>0.024</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -786,7 +786,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -801,24 +801,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Pagellus erythrinus</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="G11">
-        <v>0.728</v>
+        <v>0.138</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -827,7 +827,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -847,16 +847,16 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aequipecten opercularis</t>
+          <t>Parapenaeus longirostris</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="G12">
-        <v>0.024</v>
+        <v>0.003</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -868,7 +868,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -888,16 +888,16 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Arnoglossus laterna</t>
+          <t>Raja asterias</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="G13">
-        <v>0.013</v>
+        <v>0.126</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -909,7 +909,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -929,19 +929,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bolinus brandaris</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MUREBRA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G14">
-        <v>0.745</v>
+        <v>0.16</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -950,7 +950,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -970,19 +970,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chelidonichthys lucernus</t>
+          <t>Squilla mantis</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="G15">
-        <v>0.444</v>
+        <v>0.578</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -991,7 +991,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1011,28 +1011,28 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eledone moschata</t>
+          <t>Anomia ephippium</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>ANOMEPH</t>
         </is>
       </c>
       <c r="G16">
-        <v>0.098</v>
+        <v>0.001</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1052,28 +1052,28 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lepidotrigla cavillone</t>
+          <t>Aporrhais pespelecani</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>APORPES</t>
         </is>
       </c>
       <c r="G17">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1093,28 +1093,28 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Melicertus kerathurus</t>
+          <t>Ascidiacea nd</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ASCIDND</t>
         </is>
       </c>
       <c r="G18">
-        <v>0.079</v>
+        <v>0.023</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1134,28 +1134,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mytilus galloprovincialis</t>
+          <t>Astropecten irregularis</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MYTGALL</t>
+          <t>ASTRIRR</t>
         </is>
       </c>
       <c r="G19">
-        <v>0.203</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H19">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1175,28 +1175,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pagellus erythrinus</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G20">
-        <v>0.038</v>
+        <v>0.018</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1216,28 +1216,28 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pegusa impar</t>
+          <t>Bolinus brandaris</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SOLEIMP</t>
+          <t>MUREBRA</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.044</v>
+        <v>0.129</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1257,28 +1257,28 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Raja asterias</t>
+          <t>Bryozoa nd</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>BRYOZND</t>
         </is>
       </c>
       <c r="G22">
-        <v>0.312</v>
+        <v>0.001</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1298,28 +1298,28 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Coralligenous concretions</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>CORACON</t>
         </is>
       </c>
       <c r="G23">
-        <v>0.641</v>
+        <v>1.178</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1339,28 +1339,28 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Squilla mantis</t>
+          <t>Echinocardium cordatum</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ECHICOR</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.823</v>
+        <v>0.187</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1380,28 +1380,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Trachinus draco</t>
+          <t>Eggs of Raja sp</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>EGGSRAJ</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.058</v>
+        <v>0.093</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1421,28 +1421,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Actiniaria nd</t>
+          <t>Eggs of Tonna</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ACTINND</t>
+          <t>EGGSTON</t>
         </is>
       </c>
       <c r="G26">
         <v>0.001</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I26">
-        <v>2.49708</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1462,28 +1462,28 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Anomia ephippium</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ANOMEPH</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G27">
-        <v>0.053</v>
+        <v>0.028</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>2.49708</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1503,28 +1503,28 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Aporrhais pespelecani</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>APORPES</t>
+          <t>OSTREDU</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.021</v>
+        <v>0.183</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I28">
-        <v>2.49708</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1544,28 +1544,28 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ascidia virginea</t>
+          <t>Pagurus cuanensis</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ASCIVIR</t>
+          <t>PAGUCUA</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2.49708</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1585,28 +1585,28 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Ascidiella aspersa</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ASCIASP</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.275</v>
+        <v>0.614</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>-1</v>
       </c>
       <c r="I30">
-        <v>2.49708</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1626,28 +1626,28 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Astropecten irregularis</t>
+          <t>Stones NA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ASTRIRR</t>
+          <t>STONES</t>
         </is>
       </c>
       <c r="G31">
-        <v>0.235</v>
+        <v>0.164</v>
       </c>
       <c r="H31">
-        <v>71</v>
+        <v>-1</v>
       </c>
       <c r="I31">
-        <v>2.49708</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1667,28 +1667,28 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G32">
-        <v>0.06900000000000001</v>
+        <v>0.002</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>2.49708</v>
+        <v>4.3432</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1708,473 +1708,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Calyptraea chinensis</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CALICHI</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.001</v>
+        <v>0.173</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I33">
-        <v>2.49708</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Echinocardium cordatum</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>ECHICOR</t>
-        </is>
-      </c>
-      <c r="G34">
-        <v>0.031</v>
-      </c>
-      <c r="H34">
-        <v>6</v>
-      </c>
-      <c r="I34">
-        <v>2.49708</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Eggs of Murex</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>EGGSMUR</t>
-        </is>
-      </c>
-      <c r="G35">
-        <v>0.053</v>
-      </c>
-      <c r="H35">
-        <v>-1</v>
-      </c>
-      <c r="I35">
-        <v>2.49708</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Eggs of Tonna</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>EGGSTON</t>
-        </is>
-      </c>
-      <c r="G36">
-        <v>0.015</v>
-      </c>
-      <c r="H36">
-        <v>-1</v>
-      </c>
-      <c r="I36">
-        <v>2.49708</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Goneplax rhomboides</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>GONERHO</t>
-        </is>
-      </c>
-      <c r="G37">
-        <v>0.025</v>
-      </c>
-      <c r="H37">
-        <v>5</v>
-      </c>
-      <c r="I37">
-        <v>2.49708</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Liocarcinus depurator</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="G38">
-        <v>0.004</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>2.49708</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Medorippe lanata</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>MEDOLAN</t>
-        </is>
-      </c>
-      <c r="G39">
-        <v>0.265</v>
-      </c>
-      <c r="H39">
-        <v>25</v>
-      </c>
-      <c r="I39">
-        <v>2.49708</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Musculus subpictus</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>MUSCSUB</t>
-        </is>
-      </c>
-      <c r="G40">
-        <v>0.001</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <v>2.49708</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Pilumnus spinifer</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>PILUSPI</t>
-        </is>
-      </c>
-      <c r="G41">
-        <v>0.001</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>2.49708</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Schizaster canaliferus</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>SCHICAN</t>
-        </is>
-      </c>
-      <c r="G42">
-        <v>0.036</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42">
-        <v>2.49708</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Shells NA</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>SHELLS</t>
-        </is>
-      </c>
-      <c r="G43">
-        <v>0.299</v>
-      </c>
-      <c r="H43">
-        <v>-1</v>
-      </c>
-      <c r="I43">
-        <v>2.49708</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G44">
-        <v>0.366</v>
-      </c>
-      <c r="H44">
-        <v>-1</v>
-      </c>
-      <c r="I44">
-        <v>2.49708</v>
+        <v>4.3432</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/output/trust/catch/Catch_Trust_71.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_71.xlsx
@@ -1026,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="17">
@@ -1067,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="18">
@@ -1108,7 +1108,7 @@
         <v>4</v>
       </c>
       <c r="I18">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>15</v>
       </c>
       <c r="I19">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="20">
@@ -1190,7 +1190,7 @@
         <v>-1</v>
       </c>
       <c r="I20">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="21">
@@ -1231,7 +1231,7 @@
         <v>9</v>
       </c>
       <c r="I21">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="22">
@@ -1272,7 +1272,7 @@
         <v>-1</v>
       </c>
       <c r="I22">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="23">
@@ -1313,7 +1313,7 @@
         <v>-1</v>
       </c>
       <c r="I23">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="24">
@@ -1354,7 +1354,7 @@
         <v>26</v>
       </c>
       <c r="I24">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="25">
@@ -1395,7 +1395,7 @@
         <v>34</v>
       </c>
       <c r="I25">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="26">
@@ -1436,7 +1436,7 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="27">
@@ -1477,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1518,7 @@
         <v>27</v>
       </c>
       <c r="I28">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="29">
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="30">
@@ -1600,7 +1600,7 @@
         <v>-1</v>
       </c>
       <c r="I30">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="31">
@@ -1641,7 +1641,7 @@
         <v>-1</v>
       </c>
       <c r="I31">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="32">
@@ -1682,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="I32">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="33">
@@ -1723,7 +1723,7 @@
         <v>-1</v>
       </c>
       <c r="I33">
-        <v>4.3432</v>
+        <v>2.08</v>
       </c>
     </row>
   </sheetData>
